--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y92"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,7 +992,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>LIQUOR RESET-</t>
+          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park, (then meet Lori)</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1055,11 +1055,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park, (then meet Lori)</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1115,7 +1111,7 @@
       <c r="K16" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Corolla, Trainer</t>
+Gray Van, Trainer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1127,9 +1123,21 @@
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Driver, Equip</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1201,17 +1209,18 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Driver, Equip</t>
+          <t>@ Store,
+w/ Sarah</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1294,20 +1303,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Sarah</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1367,10 +1371,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Bonnie</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
@@ -1382,20 +1390,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1451,14 +1454,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -1470,15 +1469,20 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1526,7 +1530,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1541,18 +1545,17 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
@@ -1603,15 +1606,10 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
@@ -1623,12 +1621,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1640,7 +1638,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1675,14 +1673,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3rd week, work w/ Michael</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
@@ -1694,19 +1688,15 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1715,7 +1705,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
@@ -1750,7 +1740,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1761,12 +1751,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1778,10 +1768,15 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1805,7 +1800,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1828,12 +1823,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1845,15 +1840,10 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1877,7 +1867,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1901,20 +1891,15 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1923,10 +1908,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1954,10 +1943,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store, 1st Festival, work w/ Angela</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1977,15 +1970,20 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -1994,14 +1992,10 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2025,16 +2019,10 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Trainer</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2042,12 +2030,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S28" t="inlineStr"/>
@@ -2059,10 +2047,15 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2079,21 +2072,9 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store, 2nd Festival, work w/ Angela</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
@@ -2101,18 +2082,17 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>5:30 @ WI Dells Walmart</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2123,13 +2103,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2148,16 +2129,8 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
@@ -2170,12 +2143,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S30" t="inlineStr"/>
@@ -2187,14 +2160,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2214,7 +2185,11 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2227,17 +2202,18 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>5:30 @ WI Dells Walmart</t>
+          <t>Driver, 1/2
+Gray Van</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2248,12 +2224,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Seth</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store, 2nd Scan, work w/ Anisha</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2273,7 +2249,11 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2284,33 +2264,13 @@
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store, 2nd Scan, work w/ Anisha</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2326,7 +2286,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2339,22 +2299,9 @@
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2386,7 +2333,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2400,11 +2347,19 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2429,7 +2384,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2443,13 +2398,17 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2481,7 +2440,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>6:00 am IL office leave time</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2497,7 +2456,8 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>PICK #868, MILWAUKEE- 
+EAST POINTE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2505,7 +2465,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #42, PECATONICA</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2524,7 +2484,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bonnie</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2532,7 +2492,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2548,7 +2508,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>605 EAST LYON STREET</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2556,7 +2516,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>KELLEY #42, PECATONICA</t>
+          <t>102 9TH ST</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2575,17 +2535,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>6:00 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2595,8 +2551,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>PICK #868, MILWAUKEE- 
-EAST POINTE</t>
+          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2604,7 +2559,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>102 9TH ST</t>
+          <t>https://goo.gl/maps/AJpYhUMPHam</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2623,18 +2578,31 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2655,17 +2623,13 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>605 EAST LYON STREET</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/AJpYhUMPHam</t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2682,19 +2646,27 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>@ Store,
+w/ Sarah</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
@@ -2713,16 +2685,24 @@
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2738,28 +2718,24 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3rd week, work w/ Michael</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Camry 3, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2775,29 +2751,34 @@
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2813,25 +2794,25 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>@ Store,
-w/ Sarah</t>
+Driver</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2852,18 +2833,31 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3</t>
+        </is>
+      </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2882,19 +2876,19 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2917,29 +2911,24 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2958,32 +2947,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>@ Store,
-Driver</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2999,24 +2970,28 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jenny</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3035,26 +3010,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Savannah</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
@@ -3070,31 +3038,22 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3104,20 +3063,16 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Makeda</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3134,15 +3089,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3155,26 +3114,16 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van,
-Trainer</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
@@ -3196,17 +3145,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3221,14 +3171,22 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3247,12 +3205,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3273,13 +3231,17 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3298,12 +3260,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3323,14 +3285,10 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3338,7 +3296,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3362,18 +3320,17 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3391,17 +3348,13 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>5213 ELEVATOR RD</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3410,12 +3363,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3438,38 +3391,34 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Robyn</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3485,13 +3434,21 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>DM IS JEFF</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3502,21 +3459,9 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3530,28 +3475,20 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3561,21 +3498,9 @@
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
@@ -3588,25 +3513,37 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DM IS JEFF</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3631,18 +3568,26 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3672,35 +3617,19 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
@@ -3727,26 +3656,18 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3774,18 +3695,22 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3809,18 +3734,22 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
@@ -3854,24 +3783,12 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
@@ -3887,8 +3804,7 @@
       <c r="O61" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima,
-Trainer</t>
+Optima</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3907,24 +3823,12 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
@@ -3934,10 +3838,15 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Bonnie</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Optima</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3969,12 +3878,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Jenny</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>3rd week, work w/ Angela</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -4008,13 +3917,12 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -4048,7 +3956,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4087,7 +3995,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4126,12 +4034,13 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -4165,7 +4074,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4204,13 +4113,13 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4244,7 +4153,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4283,13 +4192,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4323,7 +4231,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4362,7 +4270,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4394,21 +4302,9 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4433,21 +4329,9 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4473,7 +4357,11 @@
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -4500,7 +4388,11 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>MODAS</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4529,7 +4421,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4560,7 +4452,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4591,7 +4483,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4620,11 +4512,7 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>3251 N PERRYVILLE RD</t>
-        </is>
-      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -4650,13 +4538,21 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -4681,8 +4577,16 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
@@ -4710,19 +4614,15 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="inlineStr"/>
@@ -4749,15 +4649,19 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4784,12 +4688,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -4817,21 +4721,9 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr"/>
@@ -4856,16 +4748,8 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
@@ -4892,7 +4776,11 @@
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -4919,7 +4807,11 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -4932,68 +4824,6 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr"/>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1251,14 +1251,10 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1339,7 +1335,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1800,10 +1796,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2nd Financial, work w/ Michael</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1840,10 +1840,14 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>4th Scan work w/ Anisha</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1867,15 +1871,10 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1908,14 +1907,10 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1943,12 +1938,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store, 1st Festival, work w/ Angela</t>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1992,10 +1989,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2019,10 +2020,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store, 1st Festival, work w/ Angela</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -2047,15 +2052,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2072,8 +2072,16 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -2103,14 +2111,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+Gray Van</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2160,12 +2167,14 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Driver, 1/2
+Silver Van,
+Supv Rx</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2185,11 +2194,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -2224,12 +2229,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Seth</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store, 2nd Scan, work w/ Anisha</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2251,7 +2256,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2268,9 +2273,21 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>@ Store, 2nd Scan, work w/ Anisha</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2286,7 +2303,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2333,7 +2350,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2355,11 +2372,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2384,7 +2397,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2408,7 +2421,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2440,7 +2453,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6:00 am IL office leave time</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2465,7 +2478,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>KELLEY #42, PECATONICA</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2492,7 +2505,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+          <t>6:00 am IL office leave time</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2516,7 +2529,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>102 9TH ST</t>
+          <t>KELLEY #42, PECATONICA</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2541,7 +2554,11 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>5:45 am meet for Sarah &amp; Aivy at Wayside Park</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2559,7 +2576,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJpYhUMPHam</t>
+          <t>102 9TH ST</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2588,21 +2605,9 @@
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
@@ -2629,7 +2634,11 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/AJpYhUMPHam</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2653,18 +2662,17 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>@ Store,
-w/ Sarah</t>
+          <t>Camry 3, Equip</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
@@ -2688,21 +2696,9 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2725,17 +2721,18 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+w/ Sarah</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
@@ -2770,15 +2767,19 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2801,18 +2802,17 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store,
-Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2840,24 +2840,23 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Driver,
-Camry 3</t>
+          <t>3rd Scan, work w/ Qiana</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2876,24 +2875,29 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>1st Financial, work w/ Michael</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Driver</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2916,19 +2920,25 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3,
+Trainer</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2947,14 +2957,26 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -2975,23 +2997,19 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3010,15 +3028,10 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3043,7 +3056,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3052,8 +3065,16 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3063,16 +3084,26 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -3094,7 +3125,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3121,7 +3152,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3150,13 +3181,12 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3171,22 +3201,14 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:30 AM START </t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3210,12 +3232,13 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3230,10 +3253,14 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t xml:space="preserve">6:30 AM START </t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3241,7 +3268,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>5213 ELEVATOR RD</t>
+          <t>KELLEY #19, HONONEGAH MOBIL, ROSCOE</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3265,7 +3292,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3288,7 +3315,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3296,7 +3323,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+          <t>5213 ELEVATOR RD</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3325,7 +3352,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3348,13 +3375,17 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/gdPX1c1pWf12</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -3368,7 +3399,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3391,34 +3422,34 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3434,22 +3465,26 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DM IS JEFF</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -3475,17 +3510,21 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>DM IS JEFF</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3513,37 +3552,21 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -3570,27 +3593,35 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
@@ -3617,18 +3648,26 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -3656,12 +3695,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3695,22 +3734,18 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3734,12 +3769,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3747,7 +3782,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3783,12 +3818,24 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
@@ -3838,13 +3885,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>2nd Scan, work w/ Calrie</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3878,12 +3924,13 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Optima</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3917,7 +3964,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -3956,7 +4003,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -3995,7 +4042,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4034,13 +4081,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P67" t="inlineStr"/>
@@ -4074,7 +4120,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4113,13 +4159,13 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4153,7 +4199,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4192,12 +4238,13 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4231,7 +4278,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4270,7 +4317,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -4302,9 +4349,21 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
@@ -4329,9 +4388,21 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr"/>
@@ -4356,13 +4427,21 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr"/>
@@ -4388,11 +4467,7 @@
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
@@ -4419,11 +4494,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -4452,7 +4523,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4483,7 +4554,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4512,7 +4583,11 @@
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
@@ -4538,21 +4613,13 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>3251 N PERRYVILLE RD</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -4577,14 +4644,10 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -4612,16 +4675,8 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Laci</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
@@ -4649,17 +4704,17 @@
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Until 8:15</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
@@ -4688,12 +4743,12 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O86" t="inlineStr"/>
@@ -4721,8 +4776,16 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Laci</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr"/>
@@ -4748,9 +4811,21 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -4775,10 +4850,14 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O89" t="inlineStr"/>
@@ -4807,11 +4886,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -4824,6 +4899,95 @@
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y93"/>
+  <dimension ref="A1:Y94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +537,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -568,7 +568,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -599,7 +599,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -630,7 +630,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -992,7 +992,7 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5:15 am meet for Sarah &amp; Aivy at Wayside Park, (then meet Lori)</t>
+          <t>5:30 am meet for Sarah &amp; Lori at WI Dells Walmart</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1214,15 +1214,10 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ Sarah</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1304,7 +1299,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1391,10 +1386,15 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1470,13 +1470,12 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
@@ -1510,7 +1509,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1546,14 +1545,10 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1586,7 +1581,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1622,7 +1617,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1653,7 +1648,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1689,7 +1684,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1713,21 +1708,9 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
@@ -1752,7 +1735,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1783,7 +1766,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1828,7 +1811,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1858,10 +1841,14 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1895,10 +1882,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1919,14 +1911,10 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1972,15 +1960,10 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2008,7 +1991,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2738, HALES CORNERS - LIFO</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2040,10 +2023,14 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lorena</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>5:30 @ WI Dells Walmart</t>
+        </is>
+      </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
@@ -2067,7 +2054,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FESTIVAL #2738, HALES CORNERS - LIFO</t>
+          <t>5600 S 108TH ST</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2095,14 +2082,10 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>5:30 @ WI Dells Walmart</t>
-        </is>
-      </c>
+          <t>Makeda</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
@@ -2131,7 +2114,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5600 S 108TH ST</t>
+          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2155,10 +2138,15 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
@@ -2188,7 +2176,7 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nBMrYYd4MgfvQze18</t>
+          <t>*IL Meet is 5:00 am at IL Office</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -2205,22 +2193,9 @@
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
@@ -2246,11 +2221,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -2296,9 +2267,21 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -2317,7 +2300,11 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2333,19 +2320,15 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2366,7 +2349,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2384,15 +2367,20 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
@@ -2413,7 +2401,8 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #868, MILWAUKEE- 
+EAST POINTE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2435,20 +2424,15 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
@@ -2469,8 +2453,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>PICK #868, MILWAUKEE- 
-EAST POINTE</t>
+          <t>605 EAST LYON STREET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2492,12 +2475,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2521,7 +2504,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>605 EAST LYON STREET</t>
+          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2543,15 +2526,20 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
@@ -2568,7 +2556,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J6rrPvkbxWp</t>
+          <t>*IL Meet is 4:30 am at IL Office</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2590,20 +2578,15 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2626,11 +2609,7 @@
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2650,12 +2629,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2692,9 +2671,22 @@
         </is>
       </c>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2709,12 +2701,12 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2750,18 +2742,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store,
-Optima, Equip</t>
+          <t>3rd Scan, work w/ Qiana</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2790,15 +2781,19 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>1st Financial, work w/ Michael</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
@@ -2835,17 +2830,19 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>3rd Scan, work w/ Qiana</t>
+          <t>Driver,
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2870,19 +2867,15 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>1st Financial, work w/ Michael</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
@@ -2915,21 +2908,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3,
-Trainer</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -2952,12 +2939,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2992,15 +2979,20 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>@ Store,
+Trainer</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
@@ -3023,15 +3015,21 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Gray Van,
+Trainer</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3051,12 +3049,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3084,23 +3082,9 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Gray Van,
-Trainer</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -3120,12 +3104,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3176,17 +3160,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 10:00</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3201,8 +3186,16 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
@@ -3227,18 +3220,17 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 10:00</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
@@ -3253,14 +3245,10 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3287,17 +3275,18 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="T49" t="inlineStr"/>
@@ -3315,7 +3304,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3347,7 +3336,7 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -3375,7 +3364,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3394,7 +3383,7 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -3422,7 +3411,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3437,7 +3426,7 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -3465,7 +3454,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
+          <t>DM IS JEFF</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3494,9 +3483,22 @@
       </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Scan, work w/ Qiana</t>
+        </is>
+      </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
@@ -3510,11 +3512,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>DM IS JEFF</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
@@ -3552,9 +3550,21 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
@@ -3593,19 +3603,15 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
@@ -3648,12 +3654,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3695,12 +3701,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3734,12 +3740,12 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3769,12 +3775,12 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3818,16 +3824,8 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3845,13 +3843,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>2nd Scan, work w/ Calrie</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3885,12 +3882,14 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2nd Scan, work w/ Calrie</t>
+          <t>Driver, 1/2
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -3924,13 +3923,12 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -3964,12 +3962,13 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>
@@ -4003,7 +4002,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -4042,7 +4041,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4081,7 +4080,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4120,12 +4119,13 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P68" t="inlineStr"/>
@@ -4159,13 +4159,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P69" t="inlineStr"/>
@@ -4199,12 +4198,13 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -4238,13 +4238,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P71" t="inlineStr"/>
@@ -4278,7 +4277,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -4317,12 +4316,13 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+1st Scan, work w/ Stephanie</t>
         </is>
       </c>
       <c r="P73" t="inlineStr"/>
@@ -4439,7 +4439,8 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
@@ -4466,9 +4467,22 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>@ Store,
+1st Day, work w/ Nate</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr"/>
@@ -4521,11 +4535,7 @@
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
@@ -4554,7 +4564,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4585,7 +4595,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -4616,7 +4626,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3251 N PERRYVILLE RD</t>
+          <t>KELLEY #30, PERRYVILLE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -4647,7 +4657,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+          <t>3251 N PERRYVILLE RD</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -4676,7 +4686,11 @@
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9WqWnwwgzV92</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
@@ -4702,21 +4716,9 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
@@ -4743,15 +4745,19 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="inlineStr"/>
@@ -4778,12 +4784,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -4813,19 +4819,15 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="inlineStr"/>
@@ -4852,15 +4854,19 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -4885,8 +4891,16 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
@@ -4940,11 +4954,7 @@
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
@@ -4973,7 +4983,7 @@
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -4988,6 +4998,37 @@
       <c r="X93" t="inlineStr"/>
       <c r="Y93" t="inlineStr"/>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -2488,7 +2488,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6:00 am IL office leave time</t>
+          <t>5:00 am IL office leave time</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>

--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -1752,7 +1752,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Gray Van</t>
         </is>
       </c>
@@ -2099,8 +2099,8 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Gray Van</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>

--- a/10-13-24 to 10-19-24 Madison Schedule.xlsx
+++ b/10-13-24 to 10-19-24 Madison Schedule.xlsx
@@ -3001,7 +3001,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2nd Scan, work w/ Calrie</t>
+          <t>2nd Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -4789,7 +4789,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -4824,7 +4824,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
@@ -4859,14 +4859,10 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="inlineStr"/>
@@ -4898,10 +4894,14 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="inlineStr"/>
